--- a/sales_2022.xlsx
+++ b/sales_2022.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\PROJECTS\PYTHON\AutomatizarReportesEnWordExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9471EA05-477E-4A59-944E-E68878FCA79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16155" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Electronic accessories</t>
-  </si>
-  <si>
-    <t>Fashion accessories</t>
-  </si>
-  <si>
-    <t>Food and beverages</t>
-  </si>
-  <si>
-    <t>Health and beauty</t>
-  </si>
-  <si>
-    <t>Home and lifestyle</t>
-  </si>
-  <si>
-    <t>Sports and travel</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,44 +46,308 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="5"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Ventas</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Report'!$B$6:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Report'!C5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Report'!$C$6:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Report'!D5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Report'!$D$6:$D$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Report'!E5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Report'!$E$6:$E$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Report'!F5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Report'!$F$6:$F$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'Report'!G5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Report'!$G$6:$G$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Report'!$A$6:$A$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,93 +634,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A5:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Electronic accessories</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Fashion accessories</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Food and beverages</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Home and lifestyle</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>Sports and travel</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>27102</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>30437</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>33171</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>18561</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>30037</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>28575</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>27236</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>23868</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>22974</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>30633</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>23825</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>26548</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sales_2022.xlsx
+++ b/sales_2022.xlsx
@@ -1,37 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\PROJECTS\PYTHON\AutomatizarReportesEnWordExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDFED92-5C37-4A30-9F68-AA07D3FEBB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="195" yWindow="645" windowWidth="16155" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Electronic accessories</t>
+  </si>
+  <si>
+    <t>Fashion accessories</t>
+  </si>
+  <si>
+    <t>Food and beverages</t>
+  </si>
+  <si>
+    <t>Health and beauty</t>
+  </si>
+  <si>
+    <t>Home and lifestyle</t>
+  </si>
+  <si>
+    <t>Sports and travel</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,308 +97,459 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="5"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-ES"/>
               <a:t>Ventas</a:t>
             </a:r>
           </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Report'!B5</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electronic accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Report'!$B$6:$B$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Report'!C5</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2134-4764-BE0F-566ECDBAB035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fashion accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Report'!$C$6:$C$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Report'!D5</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$6:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2134-4764-BE0F-566ECDBAB035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food and beverages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Report'!$D$6:$D$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Report'!E5</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$6:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2134-4764-BE0F-566ECDBAB035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health and beauty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Report'!$E$6:$E$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Report'!F5</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$E$6:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2134-4764-BE0F-566ECDBAB035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home and lifestyle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Report'!$F$6:$F$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Report'!G5</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$F$6:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2134-4764-BE0F-566ECDBAB035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports and travel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Report'!$G$6:$G$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$6:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>28575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2134-4764-BE0F-566ECDBAB035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Report'!$A$6:$A$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$A$6:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2134-4764-BE0F-566ECDBAB035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,108 +836,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A5:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Electronic accessories</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Fashion accessories</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Food and beverages</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>Home and lifestyle</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>Sports and travel</t>
-        </is>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>27102</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>30437</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>33171</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>18561</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>30037</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>28575</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>27236</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>23868</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>22974</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>30633</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>23825</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>26548</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>